--- a/natmiOut/OldD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H2">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I2">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J2">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N2">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O2">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P2">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q2">
-        <v>911.7358744228187</v>
+        <v>1002.27437685582</v>
       </c>
       <c r="R2">
-        <v>911.7358744228187</v>
+        <v>6013.64626113492</v>
       </c>
       <c r="S2">
-        <v>0.0304644688900894</v>
+        <v>0.02914924592861858</v>
       </c>
       <c r="T2">
-        <v>0.0304644688900894</v>
+        <v>0.02101039287718487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H3">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I3">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J3">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N3">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O3">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P3">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q3">
-        <v>5150.605575365334</v>
+        <v>5914.493572630632</v>
       </c>
       <c r="R3">
-        <v>5150.605575365334</v>
+        <v>53230.44215367569</v>
       </c>
       <c r="S3">
-        <v>0.1721007889649747</v>
+        <v>0.1720118080167631</v>
       </c>
       <c r="T3">
-        <v>0.1721007889649747</v>
+        <v>0.1859757714554899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H4">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I4">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J4">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N4">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O4">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P4">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q4">
-        <v>10390.4088798091</v>
+        <v>12285.10044392873</v>
       </c>
       <c r="R4">
-        <v>10390.4088798091</v>
+        <v>110565.9039953585</v>
       </c>
       <c r="S4">
-        <v>0.3471820040805569</v>
+        <v>0.3572888047095846</v>
       </c>
       <c r="T4">
-        <v>0.3471820040805569</v>
+        <v>0.386293603063572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H5">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I5">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J5">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N5">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O5">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P5">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q5">
-        <v>7112.142095308756</v>
+        <v>7737.885977009191</v>
       </c>
       <c r="R5">
-        <v>7112.142095308756</v>
+        <v>69640.97379308273</v>
       </c>
       <c r="S5">
-        <v>0.2376429815724778</v>
+        <v>0.2250417116508771</v>
       </c>
       <c r="T5">
-        <v>0.2376429815724778</v>
+        <v>0.2433106564978209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H6">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I6">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J6">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N6">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O6">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P6">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q6">
-        <v>798.1774934413181</v>
+        <v>928.1469012921626</v>
       </c>
       <c r="R6">
-        <v>798.1774934413181</v>
+        <v>8353.322111629464</v>
       </c>
       <c r="S6">
-        <v>0.02667006322758336</v>
+        <v>0.02699338914412099</v>
       </c>
       <c r="T6">
-        <v>0.02667006322758336</v>
+        <v>0.02918471951522606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H7">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I7">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J7">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N7">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O7">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P7">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q7">
-        <v>3826.419701439357</v>
+        <v>4524.020237015148</v>
       </c>
       <c r="R7">
-        <v>3826.419701439357</v>
+        <v>27144.12142209089</v>
       </c>
       <c r="S7">
-        <v>0.1278548395704182</v>
+        <v>0.1315725329509965</v>
       </c>
       <c r="T7">
-        <v>0.1278548395704182</v>
+        <v>0.09483575032837209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H8">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I8">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J8">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.1765442733921</v>
+        <v>19.5719925</v>
       </c>
       <c r="N8">
-        <v>19.1765442733921</v>
+        <v>39.143985</v>
       </c>
       <c r="O8">
-        <v>0.0323431139307629</v>
+        <v>0.03094210933382397</v>
       </c>
       <c r="P8">
-        <v>0.0323431139307629</v>
+        <v>0.02187190777676379</v>
       </c>
       <c r="Q8">
-        <v>56.22379582812123</v>
+        <v>61.64622771512626</v>
       </c>
       <c r="R8">
-        <v>56.22379582812123</v>
+        <v>246.584910860505</v>
       </c>
       <c r="S8">
-        <v>0.001878645040673492</v>
+        <v>0.001792863405205392</v>
       </c>
       <c r="T8">
-        <v>0.001878645040673492</v>
+        <v>0.0008615148995789236</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H9">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I9">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J9">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>108.332707554478</v>
+        <v>115.495743</v>
       </c>
       <c r="N9">
-        <v>108.332707554478</v>
+        <v>346.487229</v>
       </c>
       <c r="O9">
-        <v>0.1827136867263477</v>
+        <v>0.1825916246134488</v>
       </c>
       <c r="P9">
-        <v>0.1827136867263477</v>
+        <v>0.1936015640337701</v>
       </c>
       <c r="Q9">
-        <v>317.6211492652391</v>
+        <v>363.7788474068595</v>
       </c>
       <c r="R9">
-        <v>317.6211492652391</v>
+        <v>2182.673084441157</v>
       </c>
       <c r="S9">
-        <v>0.01061289776137292</v>
+        <v>0.01057981659668564</v>
       </c>
       <c r="T9">
-        <v>0.01061289776137292</v>
+        <v>0.007625792578280278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H10">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I10">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J10">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>218.541511299469</v>
+        <v>239.8982746666667</v>
       </c>
       <c r="N10">
-        <v>218.541511299469</v>
+        <v>719.694824</v>
       </c>
       <c r="O10">
-        <v>0.3685915928224504</v>
+        <v>0.3792643310961689</v>
       </c>
       <c r="P10">
-        <v>0.3685915928224504</v>
+        <v>0.4021332732970914</v>
       </c>
       <c r="Q10">
-        <v>640.7428333330743</v>
+        <v>755.6115540391321</v>
       </c>
       <c r="R10">
-        <v>640.7428333330743</v>
+        <v>4533.669324234793</v>
       </c>
       <c r="S10">
-        <v>0.02140958874189347</v>
+        <v>0.02197552638658422</v>
       </c>
       <c r="T10">
-        <v>0.02140958874189347</v>
+        <v>0.01583967023351943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H11">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I11">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J11">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>149.589712980949</v>
+        <v>151.102183</v>
       </c>
       <c r="N11">
-        <v>149.589712980949</v>
+        <v>453.306549</v>
       </c>
       <c r="O11">
-        <v>0.2522976538857455</v>
+        <v>0.2388832034840335</v>
       </c>
       <c r="P11">
-        <v>0.2522976538857455</v>
+        <v>0.2532874216646837</v>
       </c>
       <c r="Q11">
-        <v>438.5827477945492</v>
+        <v>475.9290389811195</v>
       </c>
       <c r="R11">
-        <v>438.5827477945492</v>
+        <v>2855.574233886717</v>
       </c>
       <c r="S11">
-        <v>0.01465467231326767</v>
+        <v>0.0138414918331564</v>
       </c>
       <c r="T11">
-        <v>0.01465467231326767</v>
+        <v>0.009976765166862888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H12">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I12">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J12">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.7880703945014</v>
+        <v>18.12446233333333</v>
       </c>
       <c r="N12">
-        <v>16.7880703945014</v>
+        <v>54.373387</v>
       </c>
       <c r="O12">
-        <v>0.02831471957126403</v>
+        <v>0.02865365369084289</v>
       </c>
       <c r="P12">
-        <v>0.02831471957126403</v>
+        <v>0.03038141635232813</v>
       </c>
       <c r="Q12">
-        <v>49.22101859187639</v>
+        <v>57.0869180649285</v>
       </c>
       <c r="R12">
-        <v>49.22101859187639</v>
+        <v>342.521508389571</v>
       </c>
       <c r="S12">
-        <v>0.001644656343680669</v>
+        <v>0.001660264546721897</v>
       </c>
       <c r="T12">
-        <v>0.001644656343680669</v>
+        <v>0.001196696837102072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H13">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I13">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J13">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.4811008009132</v>
+        <v>88.3431645</v>
       </c>
       <c r="N13">
-        <v>80.4811008009132</v>
+        <v>176.686329</v>
       </c>
       <c r="O13">
-        <v>0.1357392330634297</v>
+        <v>0.139665077781682</v>
       </c>
       <c r="P13">
-        <v>0.1357392330634297</v>
+        <v>0.09872441687536272</v>
       </c>
       <c r="Q13">
-        <v>235.9628989948656</v>
+        <v>278.2559228878643</v>
       </c>
       <c r="R13">
-        <v>235.9628989948656</v>
+        <v>1113.023691551457</v>
       </c>
       <c r="S13">
-        <v>0.007884393493011465</v>
+        <v>0.008092544830685484</v>
       </c>
       <c r="T13">
-        <v>0.007884393493011465</v>
+        <v>0.003888666546990646</v>
       </c>
     </row>
   </sheetData>
